--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -4,98 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
     <sheet name="_auto_shift_all" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
   <si>
     <t xml:space="preserve">                    焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">年  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">月  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 日          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 班                编号：SGSSG-BSMCSA35-G001-02A</t>
-    </r>
+    <t>白 班</t>
+  </si>
+  <si>
+    <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
     <t>筒    仓</t>
@@ -1086,13 +1017,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1068,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1151,15 +1090,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,36 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1219,7 +1121,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,14 +1153,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1250,10 +1160,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,25 +1204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1301,25 +1227,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,19 +1335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,25 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,97 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,69 +1684,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1842,6 +1705,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1851,11 +1764,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,10 +1791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1877,143 +1803,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2081,6 +2012,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2160,6 +2092,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2423,7 +2368,7 @@
   <dimension ref="B1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2444,1481 +2389,1486 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="36"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="38"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="37"/>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="39"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18.75" spans="2:22">
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="Q5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="R5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="S5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="39"/>
+      <c r="T5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:20">
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="13" t="str">
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="str">
         <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="14" t="str">
         <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="K6" s="14" t="str">
         <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" s="14" t="str">
         <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="14" t="str">
         <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="14" t="str">
         <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="14" t="str">
         <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="14" t="str">
         <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="14" t="str">
         <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="14" t="str">
         <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="14" t="str">
         <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="14" t="str">
         <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
         <v/>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="13" t="str">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="str">
         <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="14" t="str">
         <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="14" t="str">
         <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="14" t="str">
         <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="14" t="str">
         <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="13" t="str">
+      <c r="K7" s="14" t="str">
         <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" s="14" t="str">
         <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="14" t="str">
         <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="14" t="str">
         <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="14" t="str">
         <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="14" t="str">
         <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="14" t="str">
         <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="14" t="str">
         <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="14" t="str">
         <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="13" t="str">
+      <c r="T7" s="14" t="str">
         <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
         <v/>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="str">
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="str">
         <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="14" t="str">
         <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="13" t="str">
+      <c r="E8" s="14" t="str">
         <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="14" t="str">
         <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="14" t="str">
         <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="14" t="str">
         <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="14" t="str">
         <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="14" t="str">
         <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="14" t="str">
         <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="13" t="str">
+      <c r="L8" s="14" t="str">
         <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="13" t="str">
+      <c r="M8" s="14" t="str">
         <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="13" t="str">
+      <c r="N8" s="14" t="str">
         <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="13" t="str">
+      <c r="O8" s="14" t="str">
         <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="13" t="str">
+      <c r="P8" s="14" t="str">
         <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="13" t="str">
+      <c r="Q8" s="14" t="str">
         <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="13" t="str">
+      <c r="R8" s="14" t="str">
         <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="13" t="str">
+      <c r="S8" s="14" t="str">
         <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="13" t="str">
+      <c r="T8" s="14" t="str">
         <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
         <v/>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="str">
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="str">
         <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="14" t="str">
         <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="14" t="str">
         <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="14" t="str">
         <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="14" t="str">
         <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="14" t="str">
         <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="14" t="str">
         <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="14" t="str">
         <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="14" t="str">
         <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="13" t="str">
+      <c r="L9" s="14" t="str">
         <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="13" t="str">
+      <c r="M9" s="14" t="str">
         <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="13" t="str">
+      <c r="N9" s="14" t="str">
         <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="O9" s="14" t="str">
         <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="14" t="str">
         <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="Q9" s="14" t="str">
         <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="14" t="str">
         <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="14" t="str">
         <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="13" t="str">
+      <c r="T9" s="14" t="str">
         <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
         <v/>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16">
         <f t="shared" ref="C10:T10" si="0">SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="18">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="19">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="18.75" spans="2:20">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="36"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="38"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="18.75" spans="2:20">
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="37"/>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="39"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="18.75" spans="2:20">
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="L13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="O13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="P13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="Q13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="R13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="38" t="s">
+      <c r="S13" s="13" t="s">
         <v>52</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:20">
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="13" t="str">
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="str">
         <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="14" t="str">
         <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="14" t="str">
         <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="14" t="str">
         <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="14" t="str">
         <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="14" t="str">
         <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="13" t="str">
+      <c r="I14" s="14" t="str">
         <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="14" t="str">
         <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="13" t="str">
+      <c r="K14" s="14" t="str">
         <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="13" t="str">
+      <c r="L14" s="14" t="str">
         <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="13" t="str">
+      <c r="M14" s="14" t="str">
         <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="13" t="str">
+      <c r="N14" s="14" t="str">
         <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="13" t="str">
+      <c r="O14" s="14" t="str">
         <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="13" t="str">
+      <c r="P14" s="14" t="str">
         <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="13" t="str">
+      <c r="Q14" s="14" t="str">
         <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="13" t="str">
+      <c r="R14" s="14" t="str">
         <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="14" t="str">
         <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="13" t="str">
+      <c r="T14" s="14" t="str">
         <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
         <v/>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:20">
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="13" t="str">
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="str">
         <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="14" t="str">
         <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="13" t="str">
+      <c r="E15" s="14" t="str">
         <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="13" t="str">
+      <c r="F15" s="14" t="str">
         <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="13" t="str">
+      <c r="G15" s="14" t="str">
         <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="13" t="str">
+      <c r="H15" s="14" t="str">
         <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
         <v/>
       </c>
-      <c r="I15" s="13" t="str">
+      <c r="I15" s="14" t="str">
         <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="13" t="str">
+      <c r="J15" s="14" t="str">
         <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
         <v/>
       </c>
-      <c r="K15" s="13" t="str">
+      <c r="K15" s="14" t="str">
         <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
         <v/>
       </c>
-      <c r="L15" s="13" t="str">
+      <c r="L15" s="14" t="str">
         <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
         <v/>
       </c>
-      <c r="M15" s="13" t="str">
+      <c r="M15" s="14" t="str">
         <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
         <v/>
       </c>
-      <c r="N15" s="13" t="str">
+      <c r="N15" s="14" t="str">
         <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
         <v/>
       </c>
-      <c r="O15" s="13" t="str">
+      <c r="O15" s="14" t="str">
         <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
         <v/>
       </c>
-      <c r="P15" s="13" t="str">
+      <c r="P15" s="14" t="str">
         <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
         <v/>
       </c>
-      <c r="Q15" s="13" t="str">
+      <c r="Q15" s="14" t="str">
         <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
         <v/>
       </c>
-      <c r="R15" s="13" t="str">
+      <c r="R15" s="14" t="str">
         <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
         <v/>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="S15" s="14" t="str">
         <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
         <v/>
       </c>
-      <c r="T15" s="13" t="str">
+      <c r="T15" s="14" t="str">
         <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
         <v/>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:20">
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="13" t="str">
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="str">
         <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
         <v/>
       </c>
-      <c r="D16" s="13" t="str">
+      <c r="D16" s="14" t="str">
         <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
         <v/>
       </c>
-      <c r="E16" s="13" t="str">
+      <c r="E16" s="14" t="str">
         <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
         <v/>
       </c>
-      <c r="F16" s="13" t="str">
+      <c r="F16" s="14" t="str">
         <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
         <v/>
       </c>
-      <c r="G16" s="13" t="str">
+      <c r="G16" s="14" t="str">
         <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
         <v/>
       </c>
-      <c r="H16" s="13" t="str">
+      <c r="H16" s="14" t="str">
         <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
         <v/>
       </c>
-      <c r="I16" s="13" t="str">
+      <c r="I16" s="14" t="str">
         <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
         <v/>
       </c>
-      <c r="J16" s="13" t="str">
+      <c r="J16" s="14" t="str">
         <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="13" t="str">
+      <c r="K16" s="14" t="str">
         <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
         <v/>
       </c>
-      <c r="L16" s="13" t="str">
+      <c r="L16" s="14" t="str">
         <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
         <v/>
       </c>
-      <c r="M16" s="13" t="str">
+      <c r="M16" s="14" t="str">
         <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
         <v/>
       </c>
-      <c r="N16" s="13" t="str">
+      <c r="N16" s="14" t="str">
         <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
         <v/>
       </c>
-      <c r="O16" s="13" t="str">
+      <c r="O16" s="14" t="str">
         <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
         <v/>
       </c>
-      <c r="P16" s="13" t="str">
+      <c r="P16" s="14" t="str">
         <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
         <v/>
       </c>
-      <c r="Q16" s="13" t="str">
+      <c r="Q16" s="14" t="str">
         <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
         <v/>
       </c>
-      <c r="R16" s="13" t="str">
+      <c r="R16" s="14" t="str">
         <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="14" t="str">
         <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
         <v/>
       </c>
-      <c r="T16" s="13" t="str">
+      <c r="T16" s="14" t="str">
         <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
         <v/>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:20">
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13" t="str">
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="str">
         <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
         <v/>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="14" t="str">
         <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
         <v/>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E17" s="14" t="str">
         <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
         <v/>
       </c>
-      <c r="F17" s="13" t="str">
+      <c r="F17" s="14" t="str">
         <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
         <v/>
       </c>
-      <c r="G17" s="13" t="str">
+      <c r="G17" s="14" t="str">
         <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
         <v/>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="H17" s="14" t="str">
         <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
         <v/>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="I17" s="14" t="str">
         <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
         <v/>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="J17" s="14" t="str">
         <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
         <v/>
       </c>
-      <c r="K17" s="13" t="str">
+      <c r="K17" s="14" t="str">
         <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
         <v/>
       </c>
-      <c r="L17" s="13" t="str">
+      <c r="L17" s="14" t="str">
         <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
         <v/>
       </c>
-      <c r="M17" s="13" t="str">
+      <c r="M17" s="14" t="str">
         <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
         <v/>
       </c>
-      <c r="N17" s="13" t="str">
+      <c r="N17" s="14" t="str">
         <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
         <v/>
       </c>
-      <c r="O17" s="13" t="str">
+      <c r="O17" s="14" t="str">
         <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
         <v/>
       </c>
-      <c r="P17" s="13" t="str">
+      <c r="P17" s="14" t="str">
         <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
         <v/>
       </c>
-      <c r="Q17" s="13" t="str">
+      <c r="Q17" s="14" t="str">
         <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
         <v/>
       </c>
-      <c r="R17" s="13" t="str">
+      <c r="R17" s="14" t="str">
         <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
         <v/>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="S17" s="14" t="str">
         <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
         <v/>
       </c>
-      <c r="T17" s="13" t="str">
+      <c r="T17" s="14" t="str">
         <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
         <v/>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19">
         <f t="shared" ref="C18:T18" si="1">SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="18">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="5" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="36"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
+      <c r="C20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="18.75" spans="2:20">
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="J21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="L21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="M21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="N21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="O21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="P21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="Q21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="R21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="40" t="s">
+      <c r="S21" s="23" t="s">
         <v>74</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:20">
-      <c r="B22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="13" t="str">
+      <c r="B22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14" t="str">
         <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="14" t="str">
         <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="14" t="str">
         <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="14" t="str">
         <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="14" t="str">
         <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="14" t="str">
         <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="13" t="str">
+      <c r="I22" s="14" t="str">
         <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="13" t="str">
+      <c r="J22" s="14" t="str">
         <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="13" t="str">
+      <c r="K22" s="14" t="str">
         <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="13" t="str">
+      <c r="L22" s="14" t="str">
         <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="13" t="str">
+      <c r="M22" s="14" t="str">
         <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="13" t="str">
+      <c r="N22" s="14" t="str">
         <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="13" t="str">
+      <c r="O22" s="14" t="str">
         <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="13" t="str">
+      <c r="P22" s="14" t="str">
         <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="13" t="str">
+      <c r="Q22" s="14" t="str">
         <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="13" t="str">
+      <c r="R22" s="14" t="str">
         <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="13" t="str">
+      <c r="S22" s="14" t="str">
         <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="13" t="str">
+      <c r="T22" s="14" t="str">
         <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
         <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:20">
-      <c r="B23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="13" t="str">
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="14" t="str">
         <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="14" t="str">
         <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="14" t="str">
         <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="13" t="str">
+      <c r="F23" s="14" t="str">
         <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="14" t="str">
         <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="14" t="str">
         <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="13" t="str">
+      <c r="I23" s="14" t="str">
         <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="13" t="str">
+      <c r="J23" s="14" t="str">
         <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="13" t="str">
+      <c r="K23" s="14" t="str">
         <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="13" t="str">
+      <c r="L23" s="14" t="str">
         <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="13" t="str">
+      <c r="M23" s="14" t="str">
         <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="13" t="str">
+      <c r="N23" s="14" t="str">
         <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="13" t="str">
+      <c r="O23" s="14" t="str">
         <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="13" t="str">
+      <c r="P23" s="14" t="str">
         <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="13" t="str">
+      <c r="Q23" s="14" t="str">
         <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="14" t="str">
         <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="13" t="str">
+      <c r="S23" s="14" t="str">
         <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="13" t="str">
+      <c r="T23" s="14" t="str">
         <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
         <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:20">
-      <c r="B24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="13" t="str">
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="14" t="str">
         <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="14" t="str">
         <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="13" t="str">
+      <c r="E24" s="14" t="str">
         <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="13" t="str">
+      <c r="F24" s="14" t="str">
         <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="14" t="str">
         <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="14" t="str">
         <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="13" t="str">
+      <c r="I24" s="14" t="str">
         <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="13" t="str">
+      <c r="J24" s="14" t="str">
         <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="13" t="str">
+      <c r="K24" s="14" t="str">
         <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="13" t="str">
+      <c r="L24" s="14" t="str">
         <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="13" t="str">
+      <c r="M24" s="14" t="str">
         <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="13" t="str">
+      <c r="N24" s="14" t="str">
         <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="13" t="str">
+      <c r="O24" s="14" t="str">
         <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="13" t="str">
+      <c r="P24" s="14" t="str">
         <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="13" t="str">
+      <c r="Q24" s="14" t="str">
         <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R24" s="14" t="str">
         <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="13" t="str">
+      <c r="S24" s="14" t="str">
         <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="13" t="str">
+      <c r="T24" s="14" t="str">
         <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
         <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:20">
-      <c r="B25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="13" t="str">
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="14" t="str">
         <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="14" t="str">
         <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="13" t="str">
+      <c r="E25" s="14" t="str">
         <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="14" t="str">
         <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="13" t="str">
+      <c r="G25" s="14" t="str">
         <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="14" t="str">
         <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="13" t="str">
+      <c r="I25" s="14" t="str">
         <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="13" t="str">
+      <c r="J25" s="14" t="str">
         <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="13" t="str">
+      <c r="K25" s="14" t="str">
         <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="13" t="str">
+      <c r="L25" s="14" t="str">
         <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="13" t="str">
+      <c r="M25" s="14" t="str">
         <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="13" t="str">
+      <c r="N25" s="14" t="str">
         <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="13" t="str">
+      <c r="O25" s="14" t="str">
         <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="13" t="str">
+      <c r="P25" s="14" t="str">
         <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="13" t="str">
+      <c r="Q25" s="14" t="str">
         <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="13" t="str">
+      <c r="R25" s="14" t="str">
         <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="13" t="str">
+      <c r="S25" s="14" t="str">
         <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="13" t="str">
+      <c r="T25" s="14" t="str">
         <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
         <v/>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="19">
         <f t="shared" ref="C26:T26" si="2">SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="21"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="24" t="str">
+      <c r="B27" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25" t="str">
         <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
         <v/>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="25" t="str">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="26" t="str">
         <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
         <v/>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="27"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="77.45" customHeight="1" spans="2:20">
-      <c r="B28" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="41"/>
+      <c r="B28" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B29" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="42"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="44"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="46" s="1" customFormat="1" ht="117" customHeight="1"/>
@@ -3926,7 +3876,10 @@
     <row r="57" s="1" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="66" s="1" customFormat="1" ht="135.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:O2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -3987,682 +3940,682 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
-    <sheet name="_auto_shift_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_auto_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1018,11 +1016,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1068,6 +1066,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1075,17 +1080,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1105,28 +1155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,48 +1163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,10 +1179,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1204,8 +1201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,7 +1225,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,127 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,19 +1381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,27 +1686,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1729,10 +1710,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1770,31 +1783,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,16 +1801,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1821,115 +1819,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2092,19 +2090,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2389,9 +2374,9 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="3" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="B2" s="3">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2542,75 +2527,75 @@
         <v>28</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
+        <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
         <v/>
       </c>
       <c r="D6" s="14" t="str">
-        <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
+        <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
         <v/>
       </c>
       <c r="E6" s="14" t="str">
-        <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
+        <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
         <v/>
       </c>
       <c r="F6" s="14" t="str">
-        <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
+        <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
         <v/>
       </c>
       <c r="G6" s="14" t="str">
-        <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
+        <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
         <v/>
       </c>
       <c r="H6" s="14" t="str">
-        <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
+        <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
         <v/>
       </c>
       <c r="I6" s="14" t="str">
-        <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
+        <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
         <v/>
       </c>
       <c r="J6" s="14" t="str">
-        <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
+        <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
         <v/>
       </c>
       <c r="K6" s="14" t="str">
-        <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
+        <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
         <v/>
       </c>
       <c r="L6" s="14" t="str">
-        <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
+        <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
         <v/>
       </c>
       <c r="M6" s="14" t="str">
-        <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
+        <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
         <v/>
       </c>
       <c r="N6" s="14" t="str">
-        <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
+        <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
         <v/>
       </c>
       <c r="O6" s="14" t="str">
-        <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
+        <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
         <v/>
       </c>
       <c r="P6" s="14" t="str">
-        <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
+        <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
         <v/>
       </c>
       <c r="Q6" s="14" t="str">
-        <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
+        <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
         <v/>
       </c>
       <c r="R6" s="14" t="str">
-        <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
+        <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
         <v/>
       </c>
       <c r="S6" s="14" t="str">
-        <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
+        <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
         <v/>
       </c>
       <c r="T6" s="14" t="str">
-        <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
+        <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
         <v/>
       </c>
     </row>
@@ -2619,75 +2604,75 @@
         <v>29</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
+        <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
         <v/>
       </c>
       <c r="D7" s="14" t="str">
-        <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
+        <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
         <v/>
       </c>
       <c r="E7" s="14" t="str">
-        <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
+        <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
         <v/>
       </c>
       <c r="F7" s="14" t="str">
-        <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
+        <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
         <v/>
       </c>
       <c r="G7" s="14" t="str">
-        <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
+        <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
         <v/>
       </c>
       <c r="H7" s="14" t="str">
-        <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
+        <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
         <v/>
       </c>
       <c r="I7" s="14" t="str">
-        <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
+        <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
         <v/>
       </c>
       <c r="J7" s="14" t="str">
-        <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
+        <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
         <v/>
       </c>
       <c r="K7" s="14" t="str">
-        <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
+        <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
         <v/>
       </c>
       <c r="L7" s="14" t="str">
-        <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
+        <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
         <v/>
       </c>
       <c r="M7" s="14" t="str">
-        <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
+        <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
         <v/>
       </c>
       <c r="N7" s="14" t="str">
-        <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
+        <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
         <v/>
       </c>
       <c r="O7" s="14" t="str">
-        <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
+        <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
         <v/>
       </c>
       <c r="P7" s="14" t="str">
-        <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
+        <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
         <v/>
       </c>
       <c r="Q7" s="14" t="str">
-        <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
+        <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
         <v/>
       </c>
       <c r="R7" s="14" t="str">
-        <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
+        <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
         <v/>
       </c>
       <c r="S7" s="14" t="str">
-        <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
+        <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
         <v/>
       </c>
       <c r="T7" s="14" t="str">
-        <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
+        <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
         <v/>
       </c>
     </row>
@@ -2696,75 +2681,75 @@
         <v>30</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
+        <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
         <v/>
       </c>
       <c r="D8" s="14" t="str">
-        <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
+        <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
         <v/>
       </c>
       <c r="E8" s="14" t="str">
-        <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
+        <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
         <v/>
       </c>
       <c r="F8" s="14" t="str">
-        <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
+        <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
         <v/>
       </c>
       <c r="G8" s="14" t="str">
-        <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
+        <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
         <v/>
       </c>
       <c r="H8" s="14" t="str">
-        <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
+        <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
         <v/>
       </c>
       <c r="I8" s="14" t="str">
-        <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
+        <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
         <v/>
       </c>
       <c r="J8" s="14" t="str">
-        <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
+        <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
         <v/>
       </c>
       <c r="K8" s="14" t="str">
-        <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
+        <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
         <v/>
       </c>
       <c r="L8" s="14" t="str">
-        <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
+        <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
         <v/>
       </c>
       <c r="M8" s="14" t="str">
-        <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
+        <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
         <v/>
       </c>
       <c r="N8" s="14" t="str">
-        <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
+        <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
         <v/>
       </c>
       <c r="O8" s="14" t="str">
-        <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
+        <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
         <v/>
       </c>
       <c r="P8" s="14" t="str">
-        <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
+        <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
         <v/>
       </c>
       <c r="Q8" s="14" t="str">
-        <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
+        <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
         <v/>
       </c>
       <c r="R8" s="14" t="str">
-        <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
+        <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
         <v/>
       </c>
       <c r="S8" s="14" t="str">
-        <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
+        <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
         <v/>
       </c>
       <c r="T8" s="14" t="str">
-        <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
+        <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
         <v/>
       </c>
     </row>
@@ -2773,75 +2758,75 @@
         <v>31</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
+        <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
         <v/>
       </c>
       <c r="D9" s="14" t="str">
-        <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
+        <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
         <v/>
       </c>
       <c r="E9" s="14" t="str">
-        <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
+        <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
         <v/>
       </c>
       <c r="F9" s="14" t="str">
-        <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
+        <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
         <v/>
       </c>
       <c r="G9" s="14" t="str">
-        <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
+        <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
         <v/>
       </c>
       <c r="H9" s="14" t="str">
-        <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
+        <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
         <v/>
       </c>
       <c r="I9" s="14" t="str">
-        <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
+        <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
         <v/>
       </c>
       <c r="J9" s="14" t="str">
-        <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
+        <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
         <v/>
       </c>
       <c r="K9" s="14" t="str">
-        <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
+        <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
         <v/>
       </c>
       <c r="L9" s="14" t="str">
-        <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
+        <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
         <v/>
       </c>
       <c r="M9" s="14" t="str">
-        <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
+        <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
         <v/>
       </c>
       <c r="N9" s="14" t="str">
-        <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
+        <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
         <v/>
       </c>
       <c r="O9" s="14" t="str">
-        <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
+        <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
         <v/>
       </c>
       <c r="P9" s="14" t="str">
-        <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
+        <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
         <v/>
       </c>
       <c r="Q9" s="14" t="str">
-        <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
+        <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
         <v/>
       </c>
       <c r="R9" s="14" t="str">
-        <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
+        <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
         <v/>
       </c>
       <c r="S9" s="14" t="str">
-        <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
+        <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
         <v/>
       </c>
       <c r="T9" s="14" t="str">
-        <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
+        <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
         <v/>
       </c>
     </row>
@@ -2999,75 +2984,75 @@
         <v>28</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
+        <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
         <v/>
       </c>
       <c r="D14" s="14" t="str">
-        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
+        <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
         <v/>
       </c>
       <c r="E14" s="14" t="str">
-        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
+        <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
         <v/>
       </c>
       <c r="F14" s="14" t="str">
-        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
+        <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
         <v/>
       </c>
       <c r="G14" s="14" t="str">
-        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
+        <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
         <v/>
       </c>
       <c r="H14" s="14" t="str">
-        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
+        <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
         <v/>
       </c>
       <c r="I14" s="14" t="str">
-        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
+        <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
         <v/>
       </c>
       <c r="J14" s="14" t="str">
-        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
+        <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
         <v/>
       </c>
       <c r="K14" s="14" t="str">
-        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
+        <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
         <v/>
       </c>
       <c r="L14" s="14" t="str">
-        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
+        <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
         <v/>
       </c>
       <c r="M14" s="14" t="str">
-        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
+        <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
         <v/>
       </c>
       <c r="N14" s="14" t="str">
-        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
+        <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
         <v/>
       </c>
       <c r="O14" s="14" t="str">
-        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
+        <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
         <v/>
       </c>
       <c r="P14" s="14" t="str">
-        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
+        <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
         <v/>
       </c>
       <c r="Q14" s="14" t="str">
-        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
+        <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
         <v/>
       </c>
       <c r="R14" s="14" t="str">
-        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
+        <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
         <v/>
       </c>
       <c r="S14" s="14" t="str">
-        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
+        <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
         <v/>
       </c>
       <c r="T14" s="14" t="str">
-        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
+        <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
         <v/>
       </c>
     </row>
@@ -3076,75 +3061,75 @@
         <v>29</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
+        <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
         <v/>
       </c>
       <c r="D15" s="14" t="str">
-        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
+        <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
         <v/>
       </c>
       <c r="E15" s="14" t="str">
-        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
+        <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
         <v/>
       </c>
       <c r="F15" s="14" t="str">
-        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
+        <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
         <v/>
       </c>
       <c r="G15" s="14" t="str">
-        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
+        <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
         <v/>
       </c>
       <c r="H15" s="14" t="str">
-        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
+        <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
         <v/>
       </c>
       <c r="I15" s="14" t="str">
-        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
+        <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
         <v/>
       </c>
       <c r="J15" s="14" t="str">
-        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
+        <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
         <v/>
       </c>
       <c r="K15" s="14" t="str">
-        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
+        <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
         <v/>
       </c>
       <c r="L15" s="14" t="str">
-        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
+        <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
         <v/>
       </c>
       <c r="M15" s="14" t="str">
-        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
+        <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
         <v/>
       </c>
       <c r="N15" s="14" t="str">
-        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
+        <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
         <v/>
       </c>
       <c r="O15" s="14" t="str">
-        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
+        <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
         <v/>
       </c>
       <c r="P15" s="14" t="str">
-        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
+        <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
         <v/>
       </c>
       <c r="Q15" s="14" t="str">
-        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
+        <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
         <v/>
       </c>
       <c r="R15" s="14" t="str">
-        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
+        <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
         <v/>
       </c>
       <c r="S15" s="14" t="str">
-        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
+        <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
         <v/>
       </c>
       <c r="T15" s="14" t="str">
-        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
+        <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
         <v/>
       </c>
     </row>
@@ -3153,75 +3138,75 @@
         <v>30</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
+        <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
         <v/>
       </c>
       <c r="D16" s="14" t="str">
-        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
+        <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
         <v/>
       </c>
       <c r="E16" s="14" t="str">
-        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
+        <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
         <v/>
       </c>
       <c r="F16" s="14" t="str">
-        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
+        <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
         <v/>
       </c>
       <c r="G16" s="14" t="str">
-        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
+        <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
         <v/>
       </c>
       <c r="H16" s="14" t="str">
-        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
+        <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
         <v/>
       </c>
       <c r="I16" s="14" t="str">
-        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
+        <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
         <v/>
       </c>
       <c r="J16" s="14" t="str">
-        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
+        <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
         <v/>
       </c>
       <c r="K16" s="14" t="str">
-        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
+        <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
         <v/>
       </c>
       <c r="L16" s="14" t="str">
-        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
+        <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
         <v/>
       </c>
       <c r="M16" s="14" t="str">
-        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
+        <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
         <v/>
       </c>
       <c r="N16" s="14" t="str">
-        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
+        <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
         <v/>
       </c>
       <c r="O16" s="14" t="str">
-        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
+        <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
         <v/>
       </c>
       <c r="P16" s="14" t="str">
-        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
+        <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
         <v/>
       </c>
       <c r="Q16" s="14" t="str">
-        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
+        <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
         <v/>
       </c>
       <c r="R16" s="14" t="str">
-        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
+        <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
         <v/>
       </c>
       <c r="S16" s="14" t="str">
-        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
+        <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
         <v/>
       </c>
       <c r="T16" s="14" t="str">
-        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
+        <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
         <v/>
       </c>
     </row>
@@ -3230,75 +3215,75 @@
         <v>31</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
+        <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
         <v/>
       </c>
       <c r="D17" s="14" t="str">
-        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
+        <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
         <v/>
       </c>
       <c r="E17" s="14" t="str">
-        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
+        <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
         <v/>
       </c>
       <c r="F17" s="14" t="str">
-        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
+        <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
         <v/>
       </c>
       <c r="G17" s="14" t="str">
-        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
+        <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
         <v/>
       </c>
       <c r="H17" s="14" t="str">
-        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
+        <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
         <v/>
       </c>
       <c r="I17" s="14" t="str">
-        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
+        <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
         <v/>
       </c>
       <c r="J17" s="14" t="str">
-        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
+        <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
         <v/>
       </c>
       <c r="K17" s="14" t="str">
-        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
+        <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
         <v/>
       </c>
       <c r="L17" s="14" t="str">
-        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
+        <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
         <v/>
       </c>
       <c r="M17" s="14" t="str">
-        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
+        <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
         <v/>
       </c>
       <c r="N17" s="14" t="str">
-        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
+        <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
         <v/>
       </c>
       <c r="O17" s="14" t="str">
-        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
+        <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
         <v/>
       </c>
       <c r="P17" s="14" t="str">
-        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
+        <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
         <v/>
       </c>
       <c r="Q17" s="14" t="str">
-        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
+        <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
         <v/>
       </c>
       <c r="R17" s="14" t="str">
-        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
+        <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
         <v/>
       </c>
       <c r="S17" s="14" t="str">
-        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
+        <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
         <v/>
       </c>
       <c r="T17" s="14" t="str">
-        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
+        <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
         <v/>
       </c>
     </row>
@@ -3456,75 +3441,75 @@
         <v>28</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
+        <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
         <v/>
       </c>
       <c r="D22" s="14" t="str">
-        <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
+        <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
         <v/>
       </c>
       <c r="E22" s="14" t="str">
-        <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
+        <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
         <v/>
       </c>
       <c r="F22" s="14" t="str">
-        <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
+        <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
         <v/>
       </c>
       <c r="G22" s="14" t="str">
-        <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
+        <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
         <v/>
       </c>
       <c r="H22" s="14" t="str">
-        <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
+        <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
         <v/>
       </c>
       <c r="I22" s="14" t="str">
-        <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
+        <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
         <v/>
       </c>
       <c r="J22" s="14" t="str">
-        <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
+        <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
         <v/>
       </c>
       <c r="K22" s="14" t="str">
-        <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
+        <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
         <v/>
       </c>
       <c r="L22" s="14" t="str">
-        <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
+        <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
         <v/>
       </c>
       <c r="M22" s="14" t="str">
-        <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
+        <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
         <v/>
       </c>
       <c r="N22" s="14" t="str">
-        <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
+        <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
         <v/>
       </c>
       <c r="O22" s="14" t="str">
-        <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
+        <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
         <v/>
       </c>
       <c r="P22" s="14" t="str">
-        <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
+        <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
         <v/>
       </c>
       <c r="Q22" s="14" t="str">
-        <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
+        <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
         <v/>
       </c>
       <c r="R22" s="14" t="str">
-        <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
+        <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
         <v/>
       </c>
       <c r="S22" s="14" t="str">
-        <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
+        <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
         <v/>
       </c>
       <c r="T22" s="14" t="str">
-        <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
+        <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
         <v/>
       </c>
     </row>
@@ -3533,75 +3518,75 @@
         <v>29</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
+        <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
         <v/>
       </c>
       <c r="D23" s="14" t="str">
-        <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
+        <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
         <v/>
       </c>
       <c r="E23" s="14" t="str">
-        <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
+        <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
         <v/>
       </c>
       <c r="F23" s="14" t="str">
-        <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
+        <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
         <v/>
       </c>
       <c r="G23" s="14" t="str">
-        <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
+        <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
         <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
+        <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
         <v/>
       </c>
       <c r="I23" s="14" t="str">
-        <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
+        <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
         <v/>
       </c>
       <c r="J23" s="14" t="str">
-        <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
+        <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
         <v/>
       </c>
       <c r="K23" s="14" t="str">
-        <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
+        <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
         <v/>
       </c>
       <c r="L23" s="14" t="str">
-        <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
+        <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
         <v/>
       </c>
       <c r="M23" s="14" t="str">
-        <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
+        <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
         <v/>
       </c>
       <c r="N23" s="14" t="str">
-        <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
+        <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
         <v/>
       </c>
       <c r="O23" s="14" t="str">
-        <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
+        <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
         <v/>
       </c>
       <c r="P23" s="14" t="str">
-        <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
+        <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
         <v/>
       </c>
       <c r="Q23" s="14" t="str">
-        <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
+        <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
         <v/>
       </c>
       <c r="R23" s="14" t="str">
-        <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
+        <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
         <v/>
       </c>
       <c r="S23" s="14" t="str">
-        <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
+        <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
         <v/>
       </c>
       <c r="T23" s="14" t="str">
-        <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
+        <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
         <v/>
       </c>
     </row>
@@ -3610,75 +3595,75 @@
         <v>30</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
+        <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
         <v/>
       </c>
       <c r="D24" s="14" t="str">
-        <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
+        <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
         <v/>
       </c>
       <c r="E24" s="14" t="str">
-        <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
+        <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
         <v/>
       </c>
       <c r="F24" s="14" t="str">
-        <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
+        <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
         <v/>
       </c>
       <c r="G24" s="14" t="str">
-        <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
+        <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
+        <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
         <v/>
       </c>
       <c r="I24" s="14" t="str">
-        <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
+        <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
         <v/>
       </c>
       <c r="J24" s="14" t="str">
-        <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
+        <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
         <v/>
       </c>
       <c r="K24" s="14" t="str">
-        <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
+        <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
         <v/>
       </c>
       <c r="L24" s="14" t="str">
-        <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
+        <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
         <v/>
       </c>
       <c r="M24" s="14" t="str">
-        <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
+        <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
         <v/>
       </c>
       <c r="N24" s="14" t="str">
-        <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
+        <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
         <v/>
       </c>
       <c r="O24" s="14" t="str">
-        <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
+        <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
         <v/>
       </c>
       <c r="P24" s="14" t="str">
-        <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
+        <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
         <v/>
       </c>
       <c r="Q24" s="14" t="str">
-        <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
+        <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
         <v/>
       </c>
       <c r="R24" s="14" t="str">
-        <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
+        <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
         <v/>
       </c>
       <c r="S24" s="14" t="str">
-        <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
+        <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
         <v/>
       </c>
       <c r="T24" s="14" t="str">
-        <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
+        <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
         <v/>
       </c>
     </row>
@@ -3687,75 +3672,75 @@
         <v>31</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
+        <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
         <v/>
       </c>
       <c r="D25" s="14" t="str">
-        <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
+        <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
         <v/>
       </c>
       <c r="E25" s="14" t="str">
-        <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
+        <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
         <v/>
       </c>
       <c r="F25" s="14" t="str">
-        <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
+        <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
-        <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
+        <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
+        <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
         <v/>
       </c>
       <c r="I25" s="14" t="str">
-        <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
+        <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
         <v/>
       </c>
       <c r="J25" s="14" t="str">
-        <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
+        <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
         <v/>
       </c>
       <c r="K25" s="14" t="str">
-        <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
+        <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
         <v/>
       </c>
       <c r="L25" s="14" t="str">
-        <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
+        <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
         <v/>
       </c>
       <c r="M25" s="14" t="str">
-        <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
+        <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
         <v/>
       </c>
       <c r="N25" s="14" t="str">
-        <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
+        <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
         <v/>
       </c>
       <c r="O25" s="14" t="str">
-        <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
+        <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
         <v/>
       </c>
       <c r="P25" s="14" t="str">
-        <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
+        <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
         <v/>
       </c>
       <c r="Q25" s="14" t="str">
-        <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
+        <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
         <v/>
       </c>
       <c r="R25" s="14" t="str">
-        <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
+        <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
         <v/>
       </c>
       <c r="S25" s="14" t="str">
-        <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
+        <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
         <v/>
       </c>
       <c r="T25" s="14" t="str">
-        <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
+        <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
         <v/>
       </c>
     </row>
@@ -3796,7 +3781,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
+        <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
         <v/>
       </c>
       <c r="D27" s="26"/>
@@ -3809,7 +3794,7 @@
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="26" t="str">
-        <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
+        <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
         <v/>
       </c>
       <c r="L27" s="26"/>
@@ -3924,7 +3909,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4622,4 +4607,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -1012,9 +1012,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1384,6 +1381,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,52 +1454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1735,7 +1729,7 @@
   <dimension ref="B1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1755,29 +1749,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45">
-        <f>_metadata!B1</f>
+    <row r="2" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="str">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="17" t="str">
         <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -1791,59 +1785,59 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="36" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="39"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="40" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2217,91 +2211,91 @@
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="27">
         <f t="shared" ref="C10" si="0">SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="33">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="33">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="30">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
     </row>
     <row r="11" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="36" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="36" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="39"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="40" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -2674,91 +2668,91 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <f t="shared" ref="C18:O18" si="1">SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="33">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="32"/>
     </row>
     <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="36" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="36" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="39"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="21"/>
     </row>
     <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="29" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="24"/>
     </row>
     <row r="21" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -3131,112 +3125,112 @@
       <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="30">
         <f t="shared" ref="C26:O26" si="2">SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="33">
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="35"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="32"/>
     </row>
     <row r="27" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="34" t="str">
         <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="10" t="s">
         <v>76</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="18" t="str">
+      <c r="K27" s="35" t="str">
         <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="19"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
     </row>
     <row r="28" spans="2:20" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="22"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="28"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" ht="117" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3245,44 +3239,45 @@
     <row r="66" ht="135.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:T12"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="O10:T10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3996,7 +3991,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
   <si>
     <t xml:space="preserve">                    焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
@@ -1011,8 +1011,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,14 +1043,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1055,28 +1061,352 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1089,6 +1419,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1351,114 +1690,404 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1720,19 +2349,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1744,1552 +2373,1553 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="2:2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17">
+    <row r="2" ht="18.75" customHeight="1" spans="2:23">
+      <c r="B2" s="3">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="17" t="str">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="str">
         <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="17" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
-    <row r="3" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="18" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="21"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="18.75" spans="2:22">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="41"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:20">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="4" t="str">
         <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="4" t="str">
         <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="4" t="str">
         <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="4" t="str">
         <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="4" t="str">
         <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="4" t="str">
         <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="4" t="str">
         <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="4" t="str">
         <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K6" s="4" t="str">
         <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L6" s="4" t="str">
         <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="6" t="str">
+      <c r="M6" s="4" t="str">
         <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="N6" s="4" t="str">
         <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="6" t="str">
+      <c r="O6" s="4" t="str">
         <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="6" t="str">
+      <c r="P6" s="4" t="str">
         <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="6" t="str">
+      <c r="Q6" s="4" t="str">
         <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="6" t="str">
+      <c r="R6" s="4" t="str">
         <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="6" t="str">
+      <c r="S6" s="4" t="str">
         <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="6" t="str">
+      <c r="T6" s="4" t="str">
         <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:20">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="4" t="str">
         <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="4" t="str">
         <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="4" t="str">
         <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="4" t="str">
         <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="4" t="str">
         <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="4" t="str">
         <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="4" t="str">
         <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="4" t="str">
         <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="K7" s="4" t="str">
         <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="6" t="str">
+      <c r="L7" s="4" t="str">
         <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="6" t="str">
+      <c r="M7" s="4" t="str">
         <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="6" t="str">
+      <c r="N7" s="4" t="str">
         <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="6" t="str">
+      <c r="O7" s="4" t="str">
         <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="4" t="str">
         <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="6" t="str">
+      <c r="Q7" s="4" t="str">
         <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="6" t="str">
+      <c r="R7" s="4" t="str">
         <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="6" t="str">
+      <c r="S7" s="4" t="str">
         <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="6" t="str">
+      <c r="T7" s="4" t="str">
         <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:20">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="4" t="str">
         <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="4" t="str">
         <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="4" t="str">
         <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="4" t="str">
         <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="4" t="str">
         <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="4" t="str">
         <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="4" t="str">
         <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="J8" s="4" t="str">
         <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="6" t="str">
+      <c r="K8" s="4" t="str">
         <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="6" t="str">
+      <c r="L8" s="4" t="str">
         <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="M8" s="4" t="str">
         <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="4" t="str">
         <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="6" t="str">
+      <c r="O8" s="4" t="str">
         <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="6" t="str">
+      <c r="P8" s="4" t="str">
         <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="6" t="str">
+      <c r="Q8" s="4" t="str">
         <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="6" t="str">
+      <c r="R8" s="4" t="str">
         <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="6" t="str">
+      <c r="S8" s="4" t="str">
         <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="6" t="str">
+      <c r="T8" s="4" t="str">
         <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:20">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="4" t="str">
         <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="4" t="str">
         <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="4" t="str">
         <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="4" t="str">
         <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="4" t="str">
         <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="4" t="str">
         <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="4" t="str">
         <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="4" t="str">
         <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="K9" s="4" t="str">
         <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="4" t="str">
         <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="6" t="str">
+      <c r="M9" s="4" t="str">
         <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="4" t="str">
         <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="6" t="str">
+      <c r="O9" s="4" t="str">
         <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="P9" s="4" t="str">
         <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="6" t="str">
+      <c r="Q9" s="4" t="str">
         <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="6" t="str">
+      <c r="R9" s="4" t="str">
         <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="6" t="str">
+      <c r="S9" s="4" t="str">
         <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="6" t="str">
+      <c r="T9" s="4" t="str">
         <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="16">
         <f t="shared" ref="C10" si="0">SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="30">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="19">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
     </row>
-    <row r="11" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="18.75" spans="2:20">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="18" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="21"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" ht="18.75" spans="2:20">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="26"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="39"/>
     </row>
-    <row r="13" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" ht="18.75" spans="2:20">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:20">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="4" t="str">
         <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="4" t="str">
         <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="4" t="str">
         <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="4" t="str">
         <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="4" t="str">
         <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="4" t="str">
         <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="4" t="str">
         <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="4" t="str">
         <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" s="4" t="str">
         <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="4" t="str">
         <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="6" t="str">
+      <c r="M14" s="4" t="str">
         <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="N14" s="4" t="str">
         <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="6" t="str">
+      <c r="O14" s="4" t="str">
         <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="6" t="str">
+      <c r="P14" s="4" t="str">
         <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="6" t="str">
+      <c r="Q14" s="4" t="str">
         <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="6" t="str">
+      <c r="R14" s="4" t="str">
         <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="6" t="str">
+      <c r="S14" s="4" t="str">
         <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="6" t="str">
+      <c r="T14" s="4" t="str">
         <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:20">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="4" t="str">
         <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="4" t="str">
         <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" s="4" t="str">
         <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" s="4" t="str">
         <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="6" t="str">
+      <c r="G15" s="4" t="str">
         <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="6" t="str">
+      <c r="H15" s="4" t="str">
         <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="4" t="str">
         <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="J15" s="4" t="str">
         <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="K15" s="4" t="str">
         <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="L15" s="4" t="str">
         <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M15" s="6" t="str">
+      <c r="M15" s="4" t="str">
         <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N15" s="6" t="str">
+      <c r="N15" s="4" t="str">
         <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O15" s="6" t="str">
+      <c r="O15" s="4" t="str">
         <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P15" s="6" t="str">
+      <c r="P15" s="4" t="str">
         <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q15" s="6" t="str">
+      <c r="Q15" s="4" t="str">
         <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R15" s="6" t="str">
+      <c r="R15" s="4" t="str">
         <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S15" s="6" t="str">
+      <c r="S15" s="4" t="str">
         <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T15" s="6" t="str">
+      <c r="T15" s="4" t="str">
         <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:20">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="4" t="str">
         <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="4" t="str">
         <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="E16" s="6" t="str">
+      <c r="E16" s="4" t="str">
         <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
         <v/>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="4" t="str">
         <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="G16" s="6" t="str">
+      <c r="G16" s="4" t="str">
         <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="H16" s="6" t="str">
+      <c r="H16" s="4" t="str">
         <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="4" t="str">
         <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="J16" s="4" t="str">
         <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="6" t="str">
+      <c r="K16" s="4" t="str">
         <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L16" s="4" t="str">
         <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="M16" s="4" t="str">
         <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="N16" s="6" t="str">
+      <c r="N16" s="4" t="str">
         <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="O16" s="6" t="str">
+      <c r="O16" s="4" t="str">
         <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="P16" s="6" t="str">
+      <c r="P16" s="4" t="str">
         <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="Q16" s="6" t="str">
+      <c r="Q16" s="4" t="str">
         <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="R16" s="6" t="str">
+      <c r="R16" s="4" t="str">
         <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
         <v/>
       </c>
-      <c r="S16" s="6" t="str">
+      <c r="S16" s="4" t="str">
         <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
         <v/>
       </c>
-      <c r="T16" s="6" t="str">
+      <c r="T16" s="4" t="str">
         <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:20">
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="4" t="str">
         <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="4" t="str">
         <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="4" t="str">
         <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
         <v/>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="4" t="str">
         <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="G17" s="6" t="str">
+      <c r="G17" s="4" t="str">
         <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="H17" s="6" t="str">
+      <c r="H17" s="4" t="str">
         <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="4" t="str">
         <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="J17" s="4" t="str">
         <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="K17" s="6" t="str">
+      <c r="K17" s="4" t="str">
         <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="L17" s="4" t="str">
         <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="M17" s="4" t="str">
         <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="N17" s="6" t="str">
+      <c r="N17" s="4" t="str">
         <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="O17" s="6" t="str">
+      <c r="O17" s="4" t="str">
         <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="P17" s="6" t="str">
+      <c r="P17" s="4" t="str">
         <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="Q17" s="6" t="str">
+      <c r="Q17" s="4" t="str">
         <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="R17" s="6" t="str">
+      <c r="R17" s="4" t="str">
         <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
         <v/>
       </c>
-      <c r="S17" s="6" t="str">
+      <c r="S17" s="4" t="str">
         <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
         <v/>
       </c>
-      <c r="T17" s="6" t="str">
+      <c r="T17" s="4" t="str">
         <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
+    <row r="18" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="19">
         <f t="shared" ref="C18:O18" si="1">SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="30">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="32"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="18" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="21"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="38"/>
     </row>
-    <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="33" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="22" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="24"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="21" ht="18.75" spans="2:20">
+      <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:20">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="4" t="str">
         <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="6" t="str">
+      <c r="D22" s="4" t="str">
         <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="E22" s="4" t="str">
         <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="6" t="str">
+      <c r="F22" s="4" t="str">
         <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="6" t="str">
+      <c r="G22" s="4" t="str">
         <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="6" t="str">
+      <c r="H22" s="4" t="str">
         <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="4" t="str">
         <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="J22" s="4" t="str">
         <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="6" t="str">
+      <c r="K22" s="4" t="str">
         <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="L22" s="4" t="str">
         <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="M22" s="4" t="str">
         <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="6" t="str">
+      <c r="N22" s="4" t="str">
         <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="6" t="str">
+      <c r="O22" s="4" t="str">
         <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="6" t="str">
+      <c r="P22" s="4" t="str">
         <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="6" t="str">
+      <c r="Q22" s="4" t="str">
         <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="6" t="str">
+      <c r="R22" s="4" t="str">
         <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="6" t="str">
+      <c r="S22" s="4" t="str">
         <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="6" t="str">
+      <c r="T22" s="4" t="str">
         <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:20">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="4" t="str">
         <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D23" s="4" t="str">
         <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E23" s="4" t="str">
         <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="6" t="str">
+      <c r="F23" s="4" t="str">
         <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="6" t="str">
+      <c r="G23" s="4" t="str">
         <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="6" t="str">
+      <c r="H23" s="4" t="str">
         <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="4" t="str">
         <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="J23" s="4" t="str">
         <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="6" t="str">
+      <c r="K23" s="4" t="str">
         <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L23" s="4" t="str">
         <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="6" t="str">
+      <c r="M23" s="4" t="str">
         <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="6" t="str">
+      <c r="N23" s="4" t="str">
         <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="6" t="str">
+      <c r="O23" s="4" t="str">
         <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="6" t="str">
+      <c r="P23" s="4" t="str">
         <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="6" t="str">
+      <c r="Q23" s="4" t="str">
         <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="6" t="str">
+      <c r="R23" s="4" t="str">
         <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="6" t="str">
+      <c r="S23" s="4" t="str">
         <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="6" t="str">
+      <c r="T23" s="4" t="str">
         <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:20">
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="4" t="str">
         <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="6" t="str">
+      <c r="D24" s="4" t="str">
         <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="4" t="str">
         <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="6" t="str">
+      <c r="F24" s="4" t="str">
         <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="6" t="str">
+      <c r="G24" s="4" t="str">
         <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="6" t="str">
+      <c r="H24" s="4" t="str">
         <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="4" t="str">
         <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="4" t="str">
         <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="6" t="str">
+      <c r="K24" s="4" t="str">
         <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L24" s="4" t="str">
         <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="M24" s="4" t="str">
         <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="N24" s="4" t="str">
         <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="4" t="str">
         <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="6" t="str">
+      <c r="P24" s="4" t="str">
         <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="6" t="str">
+      <c r="Q24" s="4" t="str">
         <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="6" t="str">
+      <c r="R24" s="4" t="str">
         <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="6" t="str">
+      <c r="S24" s="4" t="str">
         <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="6" t="str">
+      <c r="T24" s="4" t="str">
         <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:20">
+      <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="4" t="str">
         <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="4" t="str">
         <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" s="4" t="str">
         <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="6" t="str">
+      <c r="F25" s="4" t="str">
         <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="6" t="str">
+      <c r="G25" s="4" t="str">
         <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="4" t="str">
         <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="4" t="str">
         <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="4" t="str">
         <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="6" t="str">
+      <c r="K25" s="4" t="str">
         <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="6" t="str">
+      <c r="L25" s="4" t="str">
         <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="6" t="str">
+      <c r="M25" s="4" t="str">
         <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="6" t="str">
+      <c r="N25" s="4" t="str">
         <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="6" t="str">
+      <c r="O25" s="4" t="str">
         <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="6" t="str">
+      <c r="P25" s="4" t="str">
         <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="6" t="str">
+      <c r="Q25" s="4" t="str">
         <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="6" t="str">
+      <c r="R25" s="4" t="str">
         <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="6" t="str">
+      <c r="S25" s="4" t="str">
         <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="6" t="str">
+      <c r="T25" s="4" t="str">
         <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="7" t="s">
+    <row r="26" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="19">
         <f t="shared" ref="C26:O26" si="2">SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="30">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="30">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="32"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="21"/>
     </row>
-    <row r="27" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="27" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B27" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="34" t="str">
+      <c r="C27" s="25" t="str">
         <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="10" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="35" t="str">
+      <c r="J27" s="36"/>
+      <c r="K27" s="26" t="str">
         <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="36"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="27"/>
     </row>
-    <row r="28" spans="2:20" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="37" t="s">
+    <row r="28" ht="77.45" customHeight="1" spans="2:20">
+      <c r="B28" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="43"/>
     </row>
-    <row r="29" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+    <row r="29" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B29" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="44"/>
     </row>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="117" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="135.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="46" ht="117" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="66" ht="135.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:T19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="O20:T20"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="O26:T26"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:T29"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
@@ -3300,7 +3930,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -3356,7 +3986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -3412,7 +4042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -3468,7 +4098,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3524,7 +4154,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
@@ -3580,7 +4210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>170</v>
       </c>
@@ -3636,7 +4266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>188</v>
       </c>
@@ -3692,7 +4322,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>206</v>
       </c>
@@ -3748,7 +4378,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -3804,7 +4434,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>242</v>
       </c>
@@ -3860,7 +4490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
@@ -3916,7 +4546,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>278</v>
       </c>
@@ -3972,7 +4602,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -3981,22 +4611,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23835" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -1062,14 +1062,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,10 +1083,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1097,16 +1107,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1145,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,26 +1159,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1163,29 +1171,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1197,11 +1182,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1221,19 +1221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1245,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,13 +1287,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,55 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,55 +1401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,22 +1691,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,17 +1730,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1764,40 +1788,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,133 +1806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2379,9 +2379,9 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="3">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B2" s="3" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>

--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23835" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1062,6 +1062,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1070,14 +1077,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,14 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1108,14 +1123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,8 +1136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,17 +1154,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,7 +1177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,22 +1206,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -1221,7 +1221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1245,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,25 +1329,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,73 +1389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,43 +1401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,30 +1687,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,8 +1735,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,151 +1764,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-自动配煤（班）报表设计.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
-    <sheet name="_auto_day_shift" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_auto_shift_all" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,7 +20,82 @@
     <t xml:space="preserve">                    焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
   <si>
-    <t>编号：SGSSG-BSMCSA35-G001-02A</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">年  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">月  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 日          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 班                编号：SGSSG-BSMCSA35-G001-02A</t>
+    </r>
   </si>
   <si>
     <t>筒    仓</t>
@@ -1013,12 +1087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,14 +1117,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1062,20 +1136,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1092,117 +1273,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1221,37 +1301,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,43 +1397,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,84 +1475,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1419,7 +1499,280 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,265 +1781,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,13 +1810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1743,48 +1851,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,10 +1865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,236 +1877,230 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2358,7 +2423,7 @@
   <dimension ref="B1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2378,1499 +2443,1490 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="3" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:23">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="str">
-        <f>IF(_auto_day_shift!A30="","",_auto_day_shift!A30)</f>
-        <v/>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="38"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="36"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="10" t="s">
+    <row r="4" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="35" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="39"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="37"/>
     </row>
-    <row r="5" ht="18.75" spans="2:22">
-      <c r="B5" s="10" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="2:22">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="41"/>
+      <c r="V5" s="39"/>
     </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="10" t="s">
+    <row r="6" s="1" customFormat="1" spans="2:20">
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f>IF(_auto_day_shift!A2="","",_auto_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>IF(_auto_day_shift!B2="","",_auto_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>IF(_auto_day_shift!C2="","",_auto_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f>IF(_auto_day_shift!D2="","",_auto_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>IF(_auto_day_shift!E2="","",_auto_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f>IF(_auto_day_shift!F2="","",_auto_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f>IF(_auto_day_shift!G2="","",_auto_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>IF(_auto_day_shift!H2="","",_auto_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(_auto_day_shift!I2="","",_auto_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>IF(_auto_day_shift!J2="","",_auto_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>IF(_auto_day_shift!K2="","",_auto_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>IF(_auto_day_shift!L2="","",_auto_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f>IF(_auto_day_shift!M2="","",_auto_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f>IF(_auto_day_shift!N2="","",_auto_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f>IF(_auto_day_shift!O2="","",_auto_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f>IF(_auto_day_shift!P2="","",_auto_day_shift!P2)</f>
-        <v/>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f>IF(_auto_day_shift!Q2="","",_auto_day_shift!Q2)</f>
-        <v/>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f>IF(_auto_day_shift!R2="","",_auto_day_shift!R2)</f>
+      <c r="C6" s="13" t="str">
+        <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
+        <v/>
+      </c>
+      <c r="E6" s="13" t="str">
+        <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
+        <v/>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
+        <v/>
+      </c>
+      <c r="G6" s="13" t="str">
+        <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
+        <v/>
+      </c>
+      <c r="H6" s="13" t="str">
+        <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
+        <v/>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
+        <v/>
+      </c>
+      <c r="J6" s="13" t="str">
+        <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
+        <v/>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
+        <v/>
+      </c>
+      <c r="L6" s="13" t="str">
+        <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
+        <v/>
+      </c>
+      <c r="M6" s="13" t="str">
+        <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
+        <v/>
+      </c>
+      <c r="N6" s="13" t="str">
+        <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
+        <v/>
+      </c>
+      <c r="O6" s="13" t="str">
+        <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
+        <v/>
+      </c>
+      <c r="P6" s="13" t="str">
+        <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="13" t="str">
+        <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
+        <v/>
+      </c>
+      <c r="R6" s="13" t="str">
+        <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
+        <v/>
+      </c>
+      <c r="S6" s="13" t="str">
+        <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="T6" s="13" t="str">
+        <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="10" t="s">
+    <row r="7" s="1" customFormat="1" spans="2:20">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>IF(_auto_day_shift!A4="","",_auto_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>IF(_auto_day_shift!B4="","",_auto_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>IF(_auto_day_shift!C4="","",_auto_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f>IF(_auto_day_shift!D4="","",_auto_day_shift!D4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>IF(_auto_day_shift!E4="","",_auto_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>IF(_auto_day_shift!F4="","",_auto_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f>IF(_auto_day_shift!G4="","",_auto_day_shift!G4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>IF(_auto_day_shift!H4="","",_auto_day_shift!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>IF(_auto_day_shift!I4="","",_auto_day_shift!I4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>IF(_auto_day_shift!J4="","",_auto_day_shift!J4)</f>
-        <v/>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f>IF(_auto_day_shift!K4="","",_auto_day_shift!K4)</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>IF(_auto_day_shift!L4="","",_auto_day_shift!L4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>IF(_auto_day_shift!M4="","",_auto_day_shift!M4)</f>
-        <v/>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f>IF(_auto_day_shift!N4="","",_auto_day_shift!N4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f>IF(_auto_day_shift!O4="","",_auto_day_shift!O4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f>IF(_auto_day_shift!P4="","",_auto_day_shift!P4)</f>
-        <v/>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f>IF(_auto_day_shift!Q4="","",_auto_day_shift!Q4)</f>
-        <v/>
-      </c>
-      <c r="T7" s="4" t="str">
-        <f>IF(_auto_day_shift!R4="","",_auto_day_shift!R4)</f>
+      <c r="C7" s="13" t="str">
+        <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
+        <v/>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
+        <v/>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
+        <v/>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
+        <v/>
+      </c>
+      <c r="G7" s="13" t="str">
+        <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
+        <v/>
+      </c>
+      <c r="H7" s="13" t="str">
+        <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
+        <v/>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
+        <v/>
+      </c>
+      <c r="J7" s="13" t="str">
+        <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
+        <v/>
+      </c>
+      <c r="K7" s="13" t="str">
+        <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
+        <v/>
+      </c>
+      <c r="L7" s="13" t="str">
+        <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
+        <v/>
+      </c>
+      <c r="M7" s="13" t="str">
+        <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
+        <v/>
+      </c>
+      <c r="N7" s="13" t="str">
+        <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
+        <v/>
+      </c>
+      <c r="O7" s="13" t="str">
+        <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
+        <v/>
+      </c>
+      <c r="P7" s="13" t="str">
+        <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="13" t="str">
+        <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="13" t="str">
+        <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
+        <v/>
+      </c>
+      <c r="S7" s="13" t="str">
+        <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
+        <v/>
+      </c>
+      <c r="T7" s="13" t="str">
+        <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="10" t="s">
+    <row r="8" s="1" customFormat="1" spans="2:20">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f>IF(_auto_day_shift!A6="","",_auto_day_shift!A6)</f>
-        <v/>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>IF(_auto_day_shift!B6="","",_auto_day_shift!B6)</f>
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>IF(_auto_day_shift!C6="","",_auto_day_shift!C6)</f>
-        <v/>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f>IF(_auto_day_shift!D6="","",_auto_day_shift!D6)</f>
-        <v/>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>IF(_auto_day_shift!E6="","",_auto_day_shift!E6)</f>
-        <v/>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f>IF(_auto_day_shift!F6="","",_auto_day_shift!F6)</f>
-        <v/>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>IF(_auto_day_shift!G6="","",_auto_day_shift!G6)</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>IF(_auto_day_shift!H6="","",_auto_day_shift!H6)</f>
-        <v/>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>IF(_auto_day_shift!I6="","",_auto_day_shift!I6)</f>
-        <v/>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>IF(_auto_day_shift!J6="","",_auto_day_shift!J6)</f>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f>IF(_auto_day_shift!K6="","",_auto_day_shift!K6)</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f>IF(_auto_day_shift!L6="","",_auto_day_shift!L6)</f>
-        <v/>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f>IF(_auto_day_shift!M6="","",_auto_day_shift!M6)</f>
-        <v/>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f>IF(_auto_day_shift!N6="","",_auto_day_shift!N6)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f>IF(_auto_day_shift!O6="","",_auto_day_shift!O6)</f>
-        <v/>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f>IF(_auto_day_shift!P6="","",_auto_day_shift!P6)</f>
-        <v/>
-      </c>
-      <c r="S8" s="4" t="str">
-        <f>IF(_auto_day_shift!Q6="","",_auto_day_shift!Q6)</f>
-        <v/>
-      </c>
-      <c r="T8" s="4" t="str">
-        <f>IF(_auto_day_shift!R6="","",_auto_day_shift!R6)</f>
+      <c r="C8" s="13" t="str">
+        <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
+        <v/>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
+        <v/>
+      </c>
+      <c r="E8" s="13" t="str">
+        <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
+        <v/>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
+        <v/>
+      </c>
+      <c r="G8" s="13" t="str">
+        <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
+        <v/>
+      </c>
+      <c r="H8" s="13" t="str">
+        <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
+        <v/>
+      </c>
+      <c r="I8" s="13" t="str">
+        <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
+        <v/>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
+        <v/>
+      </c>
+      <c r="K8" s="13" t="str">
+        <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
+        <v/>
+      </c>
+      <c r="L8" s="13" t="str">
+        <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
+        <v/>
+      </c>
+      <c r="M8" s="13" t="str">
+        <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
+        <v/>
+      </c>
+      <c r="N8" s="13" t="str">
+        <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
+        <v/>
+      </c>
+      <c r="O8" s="13" t="str">
+        <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
+        <v/>
+      </c>
+      <c r="P8" s="13" t="str">
+        <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="13" t="str">
+        <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
+        <v/>
+      </c>
+      <c r="R8" s="13" t="str">
+        <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
+        <v/>
+      </c>
+      <c r="S8" s="13" t="str">
+        <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
+        <v/>
+      </c>
+      <c r="T8" s="13" t="str">
+        <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="10" t="s">
+    <row r="9" s="1" customFormat="1" spans="2:20">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f>IF(_auto_day_shift!A8="","",_auto_day_shift!A8)</f>
-        <v/>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f>IF(_auto_day_shift!B8="","",_auto_day_shift!B8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>IF(_auto_day_shift!C8="","",_auto_day_shift!C8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>IF(_auto_day_shift!D8="","",_auto_day_shift!D8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f>IF(_auto_day_shift!E8="","",_auto_day_shift!E8)</f>
-        <v/>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>IF(_auto_day_shift!F8="","",_auto_day_shift!F8)</f>
-        <v/>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f>IF(_auto_day_shift!G8="","",_auto_day_shift!G8)</f>
-        <v/>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>IF(_auto_day_shift!H8="","",_auto_day_shift!H8)</f>
-        <v/>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>IF(_auto_day_shift!I8="","",_auto_day_shift!I8)</f>
-        <v/>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>IF(_auto_day_shift!J8="","",_auto_day_shift!J8)</f>
-        <v/>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f>IF(_auto_day_shift!K8="","",_auto_day_shift!K8)</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>IF(_auto_day_shift!L8="","",_auto_day_shift!L8)</f>
-        <v/>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f>IF(_auto_day_shift!M8="","",_auto_day_shift!M8)</f>
-        <v/>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f>IF(_auto_day_shift!N8="","",_auto_day_shift!N8)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f>IF(_auto_day_shift!O8="","",_auto_day_shift!O8)</f>
-        <v/>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f>IF(_auto_day_shift!P8="","",_auto_day_shift!P8)</f>
-        <v/>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f>IF(_auto_day_shift!Q8="","",_auto_day_shift!Q8)</f>
-        <v/>
-      </c>
-      <c r="T9" s="4" t="str">
-        <f>IF(_auto_day_shift!R8="","",_auto_day_shift!R8)</f>
+      <c r="C9" s="13" t="str">
+        <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
+        <v/>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
+        <v/>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
+        <v/>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
+        <v/>
+      </c>
+      <c r="G9" s="13" t="str">
+        <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
+        <v/>
+      </c>
+      <c r="H9" s="13" t="str">
+        <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
+        <v/>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="13" t="str">
+        <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
+        <v/>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
+        <v/>
+      </c>
+      <c r="L9" s="13" t="str">
+        <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
+        <v/>
+      </c>
+      <c r="M9" s="13" t="str">
+        <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
+        <v/>
+      </c>
+      <c r="N9" s="13" t="str">
+        <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
+        <v/>
+      </c>
+      <c r="O9" s="13" t="str">
+        <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
+        <v/>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="13" t="str">
+        <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
+        <v/>
+      </c>
+      <c r="R9" s="13" t="str">
+        <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
+        <v/>
+      </c>
+      <c r="S9" s="13" t="str">
+        <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
+        <v/>
+      </c>
+      <c r="T9" s="13" t="str">
+        <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="15" t="s">
+    <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="16">
-        <f t="shared" ref="C10" si="0">SUM(C9:H9)</f>
+      <c r="C10" s="15">
+        <f t="shared" ref="C10:T10" si="0">SUM(C9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18">
         <f>SUM(I9:N9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="19">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="18">
         <f>SUM(O9:T9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20"/>
     </row>
-    <row r="11" ht="18.75" spans="2:20">
-      <c r="B11" s="6" t="s">
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="2:20">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="38"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="36"/>
     </row>
-    <row r="12" ht="18.75" spans="2:20">
-      <c r="B12" s="10" t="s">
+    <row r="12" s="1" customFormat="1" ht="18.75" spans="2:20">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="35" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="39"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="37"/>
     </row>
-    <row r="13" ht="18.75" spans="2:20">
-      <c r="B13" s="10" t="s">
+    <row r="13" s="1" customFormat="1" ht="18.75" spans="2:20">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="T13" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="10" t="s">
+    <row r="14" s="1" customFormat="1" spans="2:20">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="str">
-        <f>IF(_auto_day_shift!A10="","",_auto_day_shift!A10)</f>
-        <v/>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>IF(_auto_day_shift!B10="","",_auto_day_shift!B10)</f>
-        <v/>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>IF(_auto_day_shift!C10="","",_auto_day_shift!C10)</f>
-        <v/>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f>IF(_auto_day_shift!D10="","",_auto_day_shift!D10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>IF(_auto_day_shift!E10="","",_auto_day_shift!E10)</f>
-        <v/>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>IF(_auto_day_shift!F10="","",_auto_day_shift!F10)</f>
-        <v/>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f>IF(_auto_day_shift!G10="","",_auto_day_shift!G10)</f>
-        <v/>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>IF(_auto_day_shift!H10="","",_auto_day_shift!H10)</f>
-        <v/>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>IF(_auto_day_shift!I10="","",_auto_day_shift!I10)</f>
-        <v/>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>IF(_auto_day_shift!J10="","",_auto_day_shift!J10)</f>
-        <v/>
-      </c>
-      <c r="M14" s="4" t="str">
-        <f>IF(_auto_day_shift!K10="","",_auto_day_shift!K10)</f>
-        <v/>
-      </c>
-      <c r="N14" s="4" t="str">
-        <f>IF(_auto_day_shift!L10="","",_auto_day_shift!L10)</f>
-        <v/>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f>IF(_auto_day_shift!M10="","",_auto_day_shift!M10)</f>
-        <v/>
-      </c>
-      <c r="P14" s="4" t="str">
-        <f>IF(_auto_day_shift!N10="","",_auto_day_shift!N10)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="4" t="str">
-        <f>IF(_auto_day_shift!O10="","",_auto_day_shift!O10)</f>
-        <v/>
-      </c>
-      <c r="R14" s="4" t="str">
-        <f>IF(_auto_day_shift!P10="","",_auto_day_shift!P10)</f>
-        <v/>
-      </c>
-      <c r="S14" s="4" t="str">
-        <f>IF(_auto_day_shift!Q10="","",_auto_day_shift!Q10)</f>
-        <v/>
-      </c>
-      <c r="T14" s="4" t="str">
-        <f>IF(_auto_day_shift!R10="","",_auto_day_shift!R10)</f>
+      <c r="C14" s="13" t="str">
+        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
+        <v/>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
+        <v/>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
+        <v/>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
+        <v/>
+      </c>
+      <c r="G14" s="13" t="str">
+        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
+        <v/>
+      </c>
+      <c r="H14" s="13" t="str">
+        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
+        <v/>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
+        <v/>
+      </c>
+      <c r="J14" s="13" t="str">
+        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
+        <v/>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
+        <v/>
+      </c>
+      <c r="L14" s="13" t="str">
+        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
+        <v/>
+      </c>
+      <c r="M14" s="13" t="str">
+        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
+        <v/>
+      </c>
+      <c r="N14" s="13" t="str">
+        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
+        <v/>
+      </c>
+      <c r="O14" s="13" t="str">
+        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
+        <v/>
+      </c>
+      <c r="P14" s="13" t="str">
+        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="13" t="str">
+        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
+        <v/>
+      </c>
+      <c r="R14" s="13" t="str">
+        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
+        <v/>
+      </c>
+      <c r="S14" s="13" t="str">
+        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
+        <v/>
+      </c>
+      <c r="T14" s="13" t="str">
+        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="10" t="s">
+    <row r="15" s="1" customFormat="1" spans="2:20">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="str">
-        <f>IF(_auto_day_shift!A12="","",_auto_day_shift!A12)</f>
-        <v/>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>IF(_auto_day_shift!B12="","",_auto_day_shift!B12)</f>
-        <v/>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>IF(_auto_day_shift!C12="","",_auto_day_shift!C12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>IF(_auto_day_shift!D12="","",_auto_day_shift!D12)</f>
-        <v/>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f>IF(_auto_day_shift!E12="","",_auto_day_shift!E12)</f>
-        <v/>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f>IF(_auto_day_shift!F12="","",_auto_day_shift!F12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f>IF(_auto_day_shift!G12="","",_auto_day_shift!G12)</f>
-        <v/>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f>IF(_auto_day_shift!H12="","",_auto_day_shift!H12)</f>
-        <v/>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>IF(_auto_day_shift!I12="","",_auto_day_shift!I12)</f>
-        <v/>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f>IF(_auto_day_shift!J12="","",_auto_day_shift!J12)</f>
-        <v/>
-      </c>
-      <c r="M15" s="4" t="str">
-        <f>IF(_auto_day_shift!K12="","",_auto_day_shift!K12)</f>
-        <v/>
-      </c>
-      <c r="N15" s="4" t="str">
-        <f>IF(_auto_day_shift!L12="","",_auto_day_shift!L12)</f>
-        <v/>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f>IF(_auto_day_shift!M12="","",_auto_day_shift!M12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f>IF(_auto_day_shift!N12="","",_auto_day_shift!N12)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="4" t="str">
-        <f>IF(_auto_day_shift!O12="","",_auto_day_shift!O12)</f>
-        <v/>
-      </c>
-      <c r="R15" s="4" t="str">
-        <f>IF(_auto_day_shift!P12="","",_auto_day_shift!P12)</f>
-        <v/>
-      </c>
-      <c r="S15" s="4" t="str">
-        <f>IF(_auto_day_shift!Q12="","",_auto_day_shift!Q12)</f>
-        <v/>
-      </c>
-      <c r="T15" s="4" t="str">
-        <f>IF(_auto_day_shift!R12="","",_auto_day_shift!R12)</f>
+      <c r="C15" s="13" t="str">
+        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
+        <v/>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
+        <v/>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
+        <v/>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
+        <v/>
+      </c>
+      <c r="G15" s="13" t="str">
+        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="13" t="str">
+        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="13" t="str">
+        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
+        <v/>
+      </c>
+      <c r="K15" s="13" t="str">
+        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
+        <v/>
+      </c>
+      <c r="L15" s="13" t="str">
+        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
+        <v/>
+      </c>
+      <c r="M15" s="13" t="str">
+        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
+        <v/>
+      </c>
+      <c r="N15" s="13" t="str">
+        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
+        <v/>
+      </c>
+      <c r="O15" s="13" t="str">
+        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
+        <v/>
+      </c>
+      <c r="P15" s="13" t="str">
+        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="13" t="str">
+        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="13" t="str">
+        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
+        <v/>
+      </c>
+      <c r="S15" s="13" t="str">
+        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
+        <v/>
+      </c>
+      <c r="T15" s="13" t="str">
+        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="10" t="s">
+    <row r="16" s="1" customFormat="1" spans="2:20">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="str">
-        <f>IF(_auto_day_shift!A14="","",_auto_day_shift!A14)</f>
-        <v/>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>IF(_auto_day_shift!B14="","",_auto_day_shift!B14)</f>
-        <v/>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>IF(_auto_day_shift!C14="","",_auto_day_shift!C14)</f>
-        <v/>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>IF(_auto_day_shift!D14="","",_auto_day_shift!D14)</f>
-        <v/>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>IF(_auto_day_shift!E14="","",_auto_day_shift!E14)</f>
-        <v/>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>IF(_auto_day_shift!F14="","",_auto_day_shift!F14)</f>
-        <v/>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>IF(_auto_day_shift!G14="","",_auto_day_shift!G14)</f>
-        <v/>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>IF(_auto_day_shift!H14="","",_auto_day_shift!H14)</f>
-        <v/>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>IF(_auto_day_shift!I14="","",_auto_day_shift!I14)</f>
-        <v/>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>IF(_auto_day_shift!J14="","",_auto_day_shift!J14)</f>
-        <v/>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f>IF(_auto_day_shift!K14="","",_auto_day_shift!K14)</f>
-        <v/>
-      </c>
-      <c r="N16" s="4" t="str">
-        <f>IF(_auto_day_shift!L14="","",_auto_day_shift!L14)</f>
-        <v/>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f>IF(_auto_day_shift!M14="","",_auto_day_shift!M14)</f>
-        <v/>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f>IF(_auto_day_shift!N14="","",_auto_day_shift!N14)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="4" t="str">
-        <f>IF(_auto_day_shift!O14="","",_auto_day_shift!O14)</f>
-        <v/>
-      </c>
-      <c r="R16" s="4" t="str">
-        <f>IF(_auto_day_shift!P14="","",_auto_day_shift!P14)</f>
-        <v/>
-      </c>
-      <c r="S16" s="4" t="str">
-        <f>IF(_auto_day_shift!Q14="","",_auto_day_shift!Q14)</f>
-        <v/>
-      </c>
-      <c r="T16" s="4" t="str">
-        <f>IF(_auto_day_shift!R14="","",_auto_day_shift!R14)</f>
+      <c r="C16" s="13" t="str">
+        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
+        <v/>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
+        <v/>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
+        <v/>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
+        <v/>
+      </c>
+      <c r="G16" s="13" t="str">
+        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
+        <v/>
+      </c>
+      <c r="H16" s="13" t="str">
+        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
+        <v/>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
+        <v/>
+      </c>
+      <c r="J16" s="13" t="str">
+        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
+        <v/>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
+        <v/>
+      </c>
+      <c r="L16" s="13" t="str">
+        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
+        <v/>
+      </c>
+      <c r="M16" s="13" t="str">
+        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
+        <v/>
+      </c>
+      <c r="N16" s="13" t="str">
+        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
+        <v/>
+      </c>
+      <c r="O16" s="13" t="str">
+        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
+        <v/>
+      </c>
+      <c r="P16" s="13" t="str">
+        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="13" t="str">
+        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
+        <v/>
+      </c>
+      <c r="R16" s="13" t="str">
+        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
+        <v/>
+      </c>
+      <c r="S16" s="13" t="str">
+        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
+        <v/>
+      </c>
+      <c r="T16" s="13" t="str">
+        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="10" t="s">
+    <row r="17" s="1" customFormat="1" spans="2:20">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f>IF(_auto_day_shift!A16="","",_auto_day_shift!A16)</f>
-        <v/>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f>IF(_auto_day_shift!B16="","",_auto_day_shift!B16)</f>
-        <v/>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>IF(_auto_day_shift!C16="","",_auto_day_shift!C16)</f>
-        <v/>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>IF(_auto_day_shift!D16="","",_auto_day_shift!D16)</f>
-        <v/>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>IF(_auto_day_shift!E16="","",_auto_day_shift!E16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>IF(_auto_day_shift!F16="","",_auto_day_shift!F16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f>IF(_auto_day_shift!G16="","",_auto_day_shift!G16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f>IF(_auto_day_shift!H16="","",_auto_day_shift!H16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>IF(_auto_day_shift!I16="","",_auto_day_shift!I16)</f>
-        <v/>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>IF(_auto_day_shift!J16="","",_auto_day_shift!J16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="4" t="str">
-        <f>IF(_auto_day_shift!K16="","",_auto_day_shift!K16)</f>
-        <v/>
-      </c>
-      <c r="N17" s="4" t="str">
-        <f>IF(_auto_day_shift!L16="","",_auto_day_shift!L16)</f>
-        <v/>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f>IF(_auto_day_shift!M16="","",_auto_day_shift!M16)</f>
-        <v/>
-      </c>
-      <c r="P17" s="4" t="str">
-        <f>IF(_auto_day_shift!N16="","",_auto_day_shift!N16)</f>
-        <v/>
-      </c>
-      <c r="Q17" s="4" t="str">
-        <f>IF(_auto_day_shift!O16="","",_auto_day_shift!O16)</f>
-        <v/>
-      </c>
-      <c r="R17" s="4" t="str">
-        <f>IF(_auto_day_shift!P16="","",_auto_day_shift!P16)</f>
-        <v/>
-      </c>
-      <c r="S17" s="4" t="str">
-        <f>IF(_auto_day_shift!Q16="","",_auto_day_shift!Q16)</f>
-        <v/>
-      </c>
-      <c r="T17" s="4" t="str">
-        <f>IF(_auto_day_shift!R16="","",_auto_day_shift!R16)</f>
+      <c r="C17" s="13" t="str">
+        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
+        <v/>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
+        <v/>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
+        <v/>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
+        <v/>
+      </c>
+      <c r="G17" s="13" t="str">
+        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
+        <v/>
+      </c>
+      <c r="H17" s="13" t="str">
+        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
+        <v/>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="13" t="str">
+        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
+        <v/>
+      </c>
+      <c r="K17" s="13" t="str">
+        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
+        <v/>
+      </c>
+      <c r="L17" s="13" t="str">
+        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
+        <v/>
+      </c>
+      <c r="M17" s="13" t="str">
+        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
+        <v/>
+      </c>
+      <c r="N17" s="13" t="str">
+        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
+        <v/>
+      </c>
+      <c r="O17" s="13" t="str">
+        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
+        <v/>
+      </c>
+      <c r="P17" s="13" t="str">
+        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="13" t="str">
+        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
+        <v/>
+      </c>
+      <c r="R17" s="13" t="str">
+        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
+        <v/>
+      </c>
+      <c r="S17" s="13" t="str">
+        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
+        <v/>
+      </c>
+      <c r="T17" s="13" t="str">
+        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="15" t="s">
+    <row r="18" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="19">
-        <f t="shared" ref="C18:O18" si="1">SUM(C17:H17)</f>
+      <c r="C18" s="18">
+        <f t="shared" ref="C18:T18" si="1">SUM(C17:H17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="19">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="21"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B19" s="6" t="s">
+    <row r="19" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="38"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="36"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="10" t="s">
+    <row r="20" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="22" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="11" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
     </row>
-    <row r="21" ht="18.75" spans="2:20">
-      <c r="B21" s="10" t="s">
+    <row r="21" s="1" customFormat="1" ht="18.75" spans="2:20">
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="10" t="s">
+    <row r="22" s="1" customFormat="1" spans="2:20">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="str">
-        <f>IF(_auto_day_shift!A18="","",_auto_day_shift!A18)</f>
-        <v/>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f>IF(_auto_day_shift!B18="","",_auto_day_shift!B18)</f>
-        <v/>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f>IF(_auto_day_shift!C18="","",_auto_day_shift!C18)</f>
-        <v/>
-      </c>
-      <c r="F22" s="4" t="str">
-        <f>IF(_auto_day_shift!D18="","",_auto_day_shift!D18)</f>
-        <v/>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f>IF(_auto_day_shift!E18="","",_auto_day_shift!E18)</f>
-        <v/>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f>IF(_auto_day_shift!F18="","",_auto_day_shift!F18)</f>
-        <v/>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f>IF(_auto_day_shift!G18="","",_auto_day_shift!G18)</f>
-        <v/>
-      </c>
-      <c r="J22" s="4" t="str">
-        <f>IF(_auto_day_shift!H18="","",_auto_day_shift!H18)</f>
-        <v/>
-      </c>
-      <c r="K22" s="4" t="str">
-        <f>IF(_auto_day_shift!I18="","",_auto_day_shift!I18)</f>
-        <v/>
-      </c>
-      <c r="L22" s="4" t="str">
-        <f>IF(_auto_day_shift!J18="","",_auto_day_shift!J18)</f>
-        <v/>
-      </c>
-      <c r="M22" s="4" t="str">
-        <f>IF(_auto_day_shift!K18="","",_auto_day_shift!K18)</f>
-        <v/>
-      </c>
-      <c r="N22" s="4" t="str">
-        <f>IF(_auto_day_shift!L18="","",_auto_day_shift!L18)</f>
-        <v/>
-      </c>
-      <c r="O22" s="4" t="str">
-        <f>IF(_auto_day_shift!M18="","",_auto_day_shift!M18)</f>
-        <v/>
-      </c>
-      <c r="P22" s="4" t="str">
-        <f>IF(_auto_day_shift!N18="","",_auto_day_shift!N18)</f>
-        <v/>
-      </c>
-      <c r="Q22" s="4" t="str">
-        <f>IF(_auto_day_shift!O18="","",_auto_day_shift!O18)</f>
-        <v/>
-      </c>
-      <c r="R22" s="4" t="str">
-        <f>IF(_auto_day_shift!P18="","",_auto_day_shift!P18)</f>
-        <v/>
-      </c>
-      <c r="S22" s="4" t="str">
-        <f>IF(_auto_day_shift!Q18="","",_auto_day_shift!Q18)</f>
-        <v/>
-      </c>
-      <c r="T22" s="4" t="str">
-        <f>IF(_auto_day_shift!R18="","",_auto_day_shift!R18)</f>
+      <c r="C22" s="13" t="str">
+        <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
+        <v/>
+      </c>
+      <c r="D22" s="13" t="str">
+        <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
+        <v/>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
+        <v/>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
+        <v/>
+      </c>
+      <c r="G22" s="13" t="str">
+        <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
+        <v/>
+      </c>
+      <c r="H22" s="13" t="str">
+        <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
+        <v/>
+      </c>
+      <c r="I22" s="13" t="str">
+        <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
+        <v/>
+      </c>
+      <c r="J22" s="13" t="str">
+        <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
+        <v/>
+      </c>
+      <c r="K22" s="13" t="str">
+        <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
+        <v/>
+      </c>
+      <c r="L22" s="13" t="str">
+        <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
+        <v/>
+      </c>
+      <c r="M22" s="13" t="str">
+        <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
+        <v/>
+      </c>
+      <c r="N22" s="13" t="str">
+        <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
+        <v/>
+      </c>
+      <c r="O22" s="13" t="str">
+        <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
+        <v/>
+      </c>
+      <c r="P22" s="13" t="str">
+        <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="13" t="str">
+        <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
+        <v/>
+      </c>
+      <c r="R22" s="13" t="str">
+        <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
+        <v/>
+      </c>
+      <c r="S22" s="13" t="str">
+        <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
+        <v/>
+      </c>
+      <c r="T22" s="13" t="str">
+        <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="10" t="s">
+    <row r="23" s="1" customFormat="1" spans="2:20">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="str">
-        <f>IF(_auto_day_shift!A20="","",_auto_day_shift!A20)</f>
-        <v/>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f>IF(_auto_day_shift!B20="","",_auto_day_shift!B20)</f>
-        <v/>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f>IF(_auto_day_shift!C20="","",_auto_day_shift!C20)</f>
-        <v/>
-      </c>
-      <c r="F23" s="4" t="str">
-        <f>IF(_auto_day_shift!D20="","",_auto_day_shift!D20)</f>
-        <v/>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f>IF(_auto_day_shift!E20="","",_auto_day_shift!E20)</f>
-        <v/>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f>IF(_auto_day_shift!F20="","",_auto_day_shift!F20)</f>
-        <v/>
-      </c>
-      <c r="I23" s="4" t="str">
-        <f>IF(_auto_day_shift!G20="","",_auto_day_shift!G20)</f>
-        <v/>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f>IF(_auto_day_shift!H20="","",_auto_day_shift!H20)</f>
-        <v/>
-      </c>
-      <c r="K23" s="4" t="str">
-        <f>IF(_auto_day_shift!I20="","",_auto_day_shift!I20)</f>
-        <v/>
-      </c>
-      <c r="L23" s="4" t="str">
-        <f>IF(_auto_day_shift!J20="","",_auto_day_shift!J20)</f>
-        <v/>
-      </c>
-      <c r="M23" s="4" t="str">
-        <f>IF(_auto_day_shift!K20="","",_auto_day_shift!K20)</f>
-        <v/>
-      </c>
-      <c r="N23" s="4" t="str">
-        <f>IF(_auto_day_shift!L20="","",_auto_day_shift!L20)</f>
-        <v/>
-      </c>
-      <c r="O23" s="4" t="str">
-        <f>IF(_auto_day_shift!M20="","",_auto_day_shift!M20)</f>
-        <v/>
-      </c>
-      <c r="P23" s="4" t="str">
-        <f>IF(_auto_day_shift!N20="","",_auto_day_shift!N20)</f>
-        <v/>
-      </c>
-      <c r="Q23" s="4" t="str">
-        <f>IF(_auto_day_shift!O20="","",_auto_day_shift!O20)</f>
-        <v/>
-      </c>
-      <c r="R23" s="4" t="str">
-        <f>IF(_auto_day_shift!P20="","",_auto_day_shift!P20)</f>
-        <v/>
-      </c>
-      <c r="S23" s="4" t="str">
-        <f>IF(_auto_day_shift!Q20="","",_auto_day_shift!Q20)</f>
-        <v/>
-      </c>
-      <c r="T23" s="4" t="str">
-        <f>IF(_auto_day_shift!R20="","",_auto_day_shift!R20)</f>
+      <c r="C23" s="13" t="str">
+        <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="13" t="str">
+        <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
+        <v/>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
+        <v/>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
+        <v/>
+      </c>
+      <c r="G23" s="13" t="str">
+        <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
+        <v/>
+      </c>
+      <c r="H23" s="13" t="str">
+        <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
+        <v/>
+      </c>
+      <c r="I23" s="13" t="str">
+        <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
+        <v/>
+      </c>
+      <c r="J23" s="13" t="str">
+        <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
+        <v/>
+      </c>
+      <c r="K23" s="13" t="str">
+        <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
+        <v/>
+      </c>
+      <c r="L23" s="13" t="str">
+        <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
+        <v/>
+      </c>
+      <c r="M23" s="13" t="str">
+        <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
+        <v/>
+      </c>
+      <c r="N23" s="13" t="str">
+        <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
+        <v/>
+      </c>
+      <c r="O23" s="13" t="str">
+        <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
+        <v/>
+      </c>
+      <c r="P23" s="13" t="str">
+        <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="13" t="str">
+        <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
+        <v/>
+      </c>
+      <c r="R23" s="13" t="str">
+        <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
+        <v/>
+      </c>
+      <c r="S23" s="13" t="str">
+        <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
+        <v/>
+      </c>
+      <c r="T23" s="13" t="str">
+        <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="10" t="s">
+    <row r="24" s="1" customFormat="1" spans="2:20">
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f>IF(_auto_day_shift!A22="","",_auto_day_shift!A22)</f>
-        <v/>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f>IF(_auto_day_shift!B22="","",_auto_day_shift!B22)</f>
-        <v/>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f>IF(_auto_day_shift!C22="","",_auto_day_shift!C22)</f>
-        <v/>
-      </c>
-      <c r="F24" s="4" t="str">
-        <f>IF(_auto_day_shift!D22="","",_auto_day_shift!D22)</f>
-        <v/>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f>IF(_auto_day_shift!E22="","",_auto_day_shift!E22)</f>
-        <v/>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f>IF(_auto_day_shift!F22="","",_auto_day_shift!F22)</f>
-        <v/>
-      </c>
-      <c r="I24" s="4" t="str">
-        <f>IF(_auto_day_shift!G22="","",_auto_day_shift!G22)</f>
-        <v/>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f>IF(_auto_day_shift!H22="","",_auto_day_shift!H22)</f>
-        <v/>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f>IF(_auto_day_shift!I22="","",_auto_day_shift!I22)</f>
-        <v/>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f>IF(_auto_day_shift!J22="","",_auto_day_shift!J22)</f>
-        <v/>
-      </c>
-      <c r="M24" s="4" t="str">
-        <f>IF(_auto_day_shift!K22="","",_auto_day_shift!K22)</f>
-        <v/>
-      </c>
-      <c r="N24" s="4" t="str">
-        <f>IF(_auto_day_shift!L22="","",_auto_day_shift!L22)</f>
-        <v/>
-      </c>
-      <c r="O24" s="4" t="str">
-        <f>IF(_auto_day_shift!M22="","",_auto_day_shift!M22)</f>
-        <v/>
-      </c>
-      <c r="P24" s="4" t="str">
-        <f>IF(_auto_day_shift!N22="","",_auto_day_shift!N22)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="4" t="str">
-        <f>IF(_auto_day_shift!O22="","",_auto_day_shift!O22)</f>
-        <v/>
-      </c>
-      <c r="R24" s="4" t="str">
-        <f>IF(_auto_day_shift!P22="","",_auto_day_shift!P22)</f>
-        <v/>
-      </c>
-      <c r="S24" s="4" t="str">
-        <f>IF(_auto_day_shift!Q22="","",_auto_day_shift!Q22)</f>
-        <v/>
-      </c>
-      <c r="T24" s="4" t="str">
-        <f>IF(_auto_day_shift!R22="","",_auto_day_shift!R22)</f>
+      <c r="C24" s="13" t="str">
+        <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
+        <v/>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
+        <v/>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
+        <v/>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
+        <v/>
+      </c>
+      <c r="G24" s="13" t="str">
+        <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
+        <v/>
+      </c>
+      <c r="H24" s="13" t="str">
+        <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
+        <v/>
+      </c>
+      <c r="I24" s="13" t="str">
+        <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
+        <v/>
+      </c>
+      <c r="J24" s="13" t="str">
+        <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
+        <v/>
+      </c>
+      <c r="K24" s="13" t="str">
+        <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
+        <v/>
+      </c>
+      <c r="L24" s="13" t="str">
+        <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
+        <v/>
+      </c>
+      <c r="M24" s="13" t="str">
+        <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
+        <v/>
+      </c>
+      <c r="N24" s="13" t="str">
+        <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
+        <v/>
+      </c>
+      <c r="O24" s="13" t="str">
+        <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
+        <v/>
+      </c>
+      <c r="P24" s="13" t="str">
+        <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="13" t="str">
+        <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
+        <v/>
+      </c>
+      <c r="R24" s="13" t="str">
+        <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
+        <v/>
+      </c>
+      <c r="S24" s="13" t="str">
+        <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
+        <v/>
+      </c>
+      <c r="T24" s="13" t="str">
+        <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="10" t="s">
+    <row r="25" s="1" customFormat="1" spans="2:20">
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f>IF(_auto_day_shift!A24="","",_auto_day_shift!A24)</f>
-        <v/>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f>IF(_auto_day_shift!B24="","",_auto_day_shift!B24)</f>
-        <v/>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f>IF(_auto_day_shift!C24="","",_auto_day_shift!C24)</f>
-        <v/>
-      </c>
-      <c r="F25" s="4" t="str">
-        <f>IF(_auto_day_shift!D24="","",_auto_day_shift!D24)</f>
-        <v/>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f>IF(_auto_day_shift!E24="","",_auto_day_shift!E24)</f>
-        <v/>
-      </c>
-      <c r="H25" s="4" t="str">
-        <f>IF(_auto_day_shift!F24="","",_auto_day_shift!F24)</f>
-        <v/>
-      </c>
-      <c r="I25" s="4" t="str">
-        <f>IF(_auto_day_shift!G24="","",_auto_day_shift!G24)</f>
-        <v/>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f>IF(_auto_day_shift!H24="","",_auto_day_shift!H24)</f>
-        <v/>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f>IF(_auto_day_shift!I24="","",_auto_day_shift!I24)</f>
-        <v/>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f>IF(_auto_day_shift!J24="","",_auto_day_shift!J24)</f>
-        <v/>
-      </c>
-      <c r="M25" s="4" t="str">
-        <f>IF(_auto_day_shift!K24="","",_auto_day_shift!K24)</f>
-        <v/>
-      </c>
-      <c r="N25" s="4" t="str">
-        <f>IF(_auto_day_shift!L24="","",_auto_day_shift!L24)</f>
-        <v/>
-      </c>
-      <c r="O25" s="4" t="str">
-        <f>IF(_auto_day_shift!M24="","",_auto_day_shift!M24)</f>
-        <v/>
-      </c>
-      <c r="P25" s="4" t="str">
-        <f>IF(_auto_day_shift!N24="","",_auto_day_shift!N24)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="4" t="str">
-        <f>IF(_auto_day_shift!O24="","",_auto_day_shift!O24)</f>
-        <v/>
-      </c>
-      <c r="R25" s="4" t="str">
-        <f>IF(_auto_day_shift!P24="","",_auto_day_shift!P24)</f>
-        <v/>
-      </c>
-      <c r="S25" s="4" t="str">
-        <f>IF(_auto_day_shift!Q24="","",_auto_day_shift!Q24)</f>
-        <v/>
-      </c>
-      <c r="T25" s="4" t="str">
-        <f>IF(_auto_day_shift!R24="","",_auto_day_shift!R24)</f>
+      <c r="C25" s="13" t="str">
+        <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
+        <v/>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
+        <v/>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
+        <v/>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
+        <v/>
+      </c>
+      <c r="G25" s="13" t="str">
+        <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
+        <v/>
+      </c>
+      <c r="H25" s="13" t="str">
+        <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
+        <v/>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
+        <v/>
+      </c>
+      <c r="J25" s="13" t="str">
+        <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
+        <v/>
+      </c>
+      <c r="K25" s="13" t="str">
+        <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
+        <v/>
+      </c>
+      <c r="L25" s="13" t="str">
+        <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
+        <v/>
+      </c>
+      <c r="M25" s="13" t="str">
+        <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
+        <v/>
+      </c>
+      <c r="N25" s="13" t="str">
+        <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
+        <v/>
+      </c>
+      <c r="O25" s="13" t="str">
+        <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
+        <v/>
+      </c>
+      <c r="P25" s="13" t="str">
+        <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="13" t="str">
+        <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
+        <v/>
+      </c>
+      <c r="R25" s="13" t="str">
+        <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
+        <v/>
+      </c>
+      <c r="S25" s="13" t="str">
+        <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
+        <v/>
+      </c>
+      <c r="T25" s="13" t="str">
+        <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="15" t="s">
+    <row r="26" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="19">
-        <f t="shared" ref="C26:O26" si="2">SUM(C25:H25)</f>
+      <c r="C26" s="18">
+        <f t="shared" ref="C26:T26" si="2">SUM(C25:H25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="19">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="19">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="21"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="20"/>
     </row>
-    <row r="27" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B27" s="24" t="s">
+    <row r="27" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B27" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(_auto_day_shift!A26="","",_auto_day_shift!A26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="33" t="s">
+      <c r="C27" s="24" t="str">
+        <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="26" t="str">
-        <f>IF(_auto_day_shift!B26="","",_auto_day_shift!B26)</f>
-        <v/>
-      </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="27"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="25" t="str">
+        <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
+        <v/>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="26"/>
     </row>
-    <row r="28" ht="77.45" customHeight="1" spans="2:20">
-      <c r="B28" s="28" t="s">
+    <row r="28" s="1" customFormat="1" ht="77.45" customHeight="1" spans="2:20">
+      <c r="B28" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="43"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="41"/>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B29" s="30" t="s">
+    <row r="29" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B29" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="44"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="42"/>
     </row>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="46" ht="117" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="66" ht="135.75" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="46" s="1" customFormat="1" ht="117" customHeight="1"/>
+    <row r="48" s="1" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="57" s="1" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="66" s="1" customFormat="1" ht="135.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:O2"/>
+  <mergeCells count="32">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -3905,7 +3961,6 @@
     <mergeCell ref="H29:T29"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3916,21 +3971,21 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,7 +4041,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -4042,7 +4097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -4098,7 +4153,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -4154,7 +4209,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
@@ -4210,7 +4265,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>170</v>
       </c>
@@ -4266,7 +4321,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>188</v>
       </c>
@@ -4322,7 +4377,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" s="1" customFormat="1" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>206</v>
       </c>
@@ -4378,7 +4433,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" s="1" customFormat="1" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -4434,7 +4489,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" s="1" customFormat="1" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>242</v>
       </c>
@@ -4490,7 +4545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
@@ -4546,7 +4601,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>278</v>
       </c>
@@ -4602,7 +4657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -4614,20 +4669,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>